--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27601"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{911EA8DF-6033-4535-A1DF-3A4BB94F911E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13BE8AD3-A739-4AF5-9B30-952FE047B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="プルダウン用" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,14 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>検索ワード</t>
   </si>
   <si>
-    <t xml:space="preserve">文字の区切り方（正規表現）
-デフォルトは文末のピリオドで区切る。ただしU.S.などの略語のピリオドは無視
-</t>
+    <t>ハイライト色</t>
   </si>
   <si>
     <t>PDF出力有無(0 or 1)</t>
@@ -51,22 +50,58 @@
     <t>抽出前後の文章数</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>(?&lt;!\w\.\w.)(?&lt;![A-Z][a-z]\.)(?&lt;=\.|\?)\s</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t xml:space="preserve"> than the</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>individual errors</t>
+  </si>
+  <si>
+    <t>pink</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
+    <t>yellow</t>
+  </si>
+  <si>
     <t>book</t>
   </si>
   <si>
+    <t>orange</t>
+  </si>
+  <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>winding</t>
+  </si>
+  <si>
+    <t>coolant</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>gray</t>
   </si>
 </sst>
 </file>
@@ -82,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,7 +126,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,11 +254,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -227,26 +265,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,114 +623,252 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="23" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+    </row>
+    <row r="3" spans="1:5" ht="18.75">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.75">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D285864-8BCE-4C10-ADB3-A865AE30F526}">
+          <x14:formula1>
+            <xm:f>プルダウン用!$A$2:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17A18CD4-7BAD-4C27-9F86-E1FB3BBAEB9D}">
+          <x14:formula1>
+            <xm:f>プルダウン用!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{77468345-7026-43F0-B236-1AD4ACBC51AD}">
+          <x14:formula1>
+            <xm:f>プルダウン用!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85373D57-1C4E-40C8-8A8C-8C5FC5D9ED6B}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="135">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75">
-      <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75">
-      <c r="A4" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75">
-      <c r="A6" s="9" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="9"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75">
-      <c r="A8" s="9"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75">
-      <c r="A10" s="9"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13BE8AD3-A739-4AF5-9B30-952FE047B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17E8A64C-71F2-4684-9C37-205D329855F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,12 +32,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
-  <si>
-    <t>検索ワード</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+  <si>
+    <t>Find Word</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Output PDF</t>
+  </si>
+  <si>
+    <t>Google Translate</t>
+  </si>
+  <si>
+    <t>Sentence Number</t>
+  </si>
+  <si>
+    <t>Find Header</t>
+  </si>
+  <si>
+    <t>Find Footer</t>
+  </si>
+  <si>
+    <t>Find Title</t>
+  </si>
+  <si>
+    <t>検索する単語</t>
   </si>
   <si>
     <t>ハイライト色</t>
+  </si>
+  <si>
+    <t>0: Undo、1 : Do</t>
+  </si>
+  <si>
+    <t>0: Undo、1 : Do
+(Google翻訳ｻｰﾊﾞ状態に影響)</t>
+  </si>
+  <si>
+    <t>抽出前後の文章数</t>
+  </si>
+  <si>
+    <t>判定行数</t>
+  </si>
+  <si>
+    <t>タイトルのフォント
+デフォルトはbold</t>
+  </si>
+  <si>
+    <t>than the</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>individual errors</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>winding</t>
+  </si>
+  <si>
+    <t>coolant</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>blue</t>
   </si>
   <si>
     <t>PDF出力有無(0 or 1)</t>
@@ -45,54 +134,6 @@
   <si>
     <t>和訳有無(0 or 1)
 (Google翻訳の状態でエラー発生)</t>
-  </si>
-  <si>
-    <t>抽出前後の文章数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> than the</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>individual errors</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>winding</t>
-  </si>
-  <si>
-    <t>coolant</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>blue</t>
   </si>
   <si>
     <t>green</t>
@@ -108,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +157,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック "/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック "/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +193,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -159,19 +222,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -250,41 +300,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,140 +713,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="7" customWidth="1"/>
+    <col min="3" max="8" width="15.625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75">
-      <c r="A2" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75">
-      <c r="A9" s="5" t="s">
+      <c r="F3" s="12">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12">
+        <v>5</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25">
+      <c r="A7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.25">
+      <c r="A9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25">
+      <c r="A10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.25">
+      <c r="A11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -764,19 +900,19 @@
           <x14:formula1>
             <xm:f>プルダウン用!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B3:B11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17A18CD4-7BAD-4C27-9F86-E1FB3BBAEB9D}">
           <x14:formula1>
             <xm:f>プルダウン用!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
+          <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{77468345-7026-43F0-B236-1AD4ACBC51AD}">
           <x14:formula1>
             <xm:f>プルダウン用!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
+          <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -795,22 +931,22 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="135">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>4</v>
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -821,7 +957,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -832,42 +968,42 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
